--- a/src/Services/test.xlsx
+++ b/src/Services/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renzi\Documents\repp_backend\src\Services\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renzi\Documents\FING\PIS\repp_backend\src\Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91CF31F-4C76-4507-896C-7020B37149E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590B470E-D707-4EE8-B257-43DF5CD1E724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A4031272-87DC-43E9-BA95-7EFE4AF5910A}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{A4031272-87DC-43E9-BA95-7EFE4AF5910A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -670,7 +670,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,8 +761,21 @@
       <c r="F3" s="4">
         <v>160</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="K3" s="7"/>
+      <c r="H3" s="9">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4">
+        <v>10</v>
+      </c>
+      <c r="K3" s="7">
+        <v>17</v>
+      </c>
+      <c r="L3" s="5">
+        <v>59</v>
+      </c>
+      <c r="M3" s="4">
+        <v>158</v>
+      </c>
       <c r="O3" s="16"/>
       <c r="P3" s="17"/>
     </row>
@@ -773,10 +786,37 @@
       <c r="B4" s="4">
         <v>20</v>
       </c>
+      <c r="D4" s="1">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5">
+        <v>69</v>
+      </c>
+      <c r="F4" s="4">
+        <v>155</v>
+      </c>
+      <c r="K4" s="1">
+        <v>21</v>
+      </c>
+      <c r="L4" s="5">
+        <v>62</v>
+      </c>
+      <c r="M4" s="4">
+        <v>166</v>
+      </c>
       <c r="O4" s="16"/>
       <c r="P4" s="17"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <v>25</v>
+      </c>
+      <c r="L5" s="5">
+        <v>70</v>
+      </c>
+      <c r="M5" s="4">
+        <v>170</v>
+      </c>
       <c r="O5" s="18"/>
       <c r="P5" s="19"/>
     </row>
@@ -854,18 +894,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1053,18 +1093,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96791853-1F35-43CC-95E3-7FA1F9E37EC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51903091-7D99-4F5E-8DEE-30AC40088B6A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51903091-7D99-4F5E-8DEE-30AC40088B6A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96791853-1F35-43CC-95E3-7FA1F9E37EC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/Services/test.xlsx
+++ b/src/Services/test.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renzi\Documents\FING\PIS\repp_backend\src\Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590B470E-D707-4EE8-B257-43DF5CD1E724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10AA738-25F3-4359-BA22-FD0BEFE45BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{A4031272-87DC-43E9-BA95-7EFE4AF5910A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{A4031272-87DC-43E9-BA95-7EFE4AF5910A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hombres&lt;1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hombres" sheetId="2" r:id="rId2"/>
+    <sheet name="Mujeres&lt;1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,33 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
-    <t>Hombres de 1 a 11 Meses</t>
-  </si>
-  <si>
-    <t>Hombres</t>
-  </si>
-  <si>
-    <t>Mujeres de 1 a 11 Meses</t>
-  </si>
-  <si>
-    <t>Mujeres</t>
-  </si>
-  <si>
-    <t>Edad (meses)</t>
-  </si>
-  <si>
-    <t>Peso (kg)</t>
+    <t>*En caso de no tener el peso de la persona, se puede ingresar la talla en su defecto</t>
   </si>
   <si>
     <t>Edad (años)</t>
   </si>
   <si>
-    <t>Talla (cm)*</t>
+    <t>Peso (Kg)</t>
   </si>
   <si>
-    <t>*En caso de no tener el peso de la persona, se puede ingresar la talla en su defecto</t>
+    <t>Talla (cm)</t>
+  </si>
+  <si>
+    <t>Edad (meses)</t>
   </si>
 </sst>
 </file>
@@ -90,7 +80,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,8 +97,20 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -197,19 +199,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -230,17 +219,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -322,16 +300,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -345,11 +322,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -667,245 +641,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5683C36C-0FFD-4996-902D-8D1717546983}">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="10"/>
-    <col min="2" max="2" width="12.140625" style="4"/>
-    <col min="4" max="4" width="12.140625" style="1"/>
-    <col min="5" max="5" width="12.140625" style="5"/>
-    <col min="6" max="6" width="12.140625" style="4"/>
-    <col min="8" max="8" width="12.140625" style="10"/>
-    <col min="9" max="9" width="12.140625" style="4"/>
-    <col min="11" max="11" width="12.140625" style="1"/>
-    <col min="12" max="12" width="12.140625" style="5"/>
-    <col min="13" max="13" width="12.140625" style="4"/>
+    <col min="1" max="1" width="12.1796875" style="10"/>
+    <col min="2" max="2" width="12.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="D1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="12"/>
-      <c r="H1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="12"/>
-      <c r="K1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="12"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="15"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
         <v>9</v>
       </c>
+      <c r="B2" s="4">
+        <v>17</v>
+      </c>
+      <c r="O2" s="15"/>
+      <c r="P2" s="16"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>11</v>
+      </c>
       <c r="B3" s="4">
-        <v>17</v>
-      </c>
-      <c r="D3" s="7">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5">
-        <v>60</v>
-      </c>
-      <c r="F3" s="4">
-        <v>160</v>
-      </c>
-      <c r="H3" s="9">
-        <v>7</v>
-      </c>
-      <c r="I3" s="4">
-        <v>10</v>
-      </c>
-      <c r="K3" s="7">
-        <v>17</v>
-      </c>
-      <c r="L3" s="5">
-        <v>59</v>
-      </c>
-      <c r="M3" s="4">
-        <v>158</v>
-      </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="17"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4">
         <v>20</v>
       </c>
-      <c r="D4" s="1">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5">
-        <v>69</v>
-      </c>
-      <c r="F4" s="4">
-        <v>155</v>
-      </c>
-      <c r="K4" s="1">
-        <v>21</v>
-      </c>
-      <c r="L4" s="5">
-        <v>62</v>
-      </c>
-      <c r="M4" s="4">
-        <v>166</v>
-      </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="17"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K5" s="1">
-        <v>25</v>
-      </c>
-      <c r="L5" s="5">
-        <v>70</v>
-      </c>
-      <c r="M5" s="4">
-        <v>170</v>
-      </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="19"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O3" s="15"/>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="O2:P5"/>
+  <mergeCells count="1">
+    <mergeCell ref="O1:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0259CE4-1920-4C28-8351-BB732261FA5C}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="5"/>
+    <col min="3" max="3" width="9.1796875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5">
+        <v>60</v>
+      </c>
+      <c r="C2" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5">
+        <v>69</v>
+      </c>
+      <c r="C3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K4:N9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F03E005-0A22-4DA5-A050-9B514C55239F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1093,18 +1087,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96791853-1F35-43CC-95E3-7FA1F9E37EC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51903091-7D99-4F5E-8DEE-30AC40088B6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96791853-1F35-43CC-95E3-7FA1F9E37EC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/Services/test.xlsx
+++ b/src/Services/test.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renzi\Documents\FING\PIS\repp_backend\src\Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10AA738-25F3-4359-BA22-FD0BEFE45BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81351AF1-327E-4D12-8870-1FCCE0B3D87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{A4031272-87DC-43E9-BA95-7EFE4AF5910A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{A4031272-87DC-43E9-BA95-7EFE4AF5910A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hombres&lt;1" sheetId="1" r:id="rId1"/>
     <sheet name="Hombres" sheetId="2" r:id="rId2"/>
     <sheet name="Mujeres&lt;1" sheetId="4" r:id="rId3"/>
+    <sheet name="Mujeres" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>*En caso de no tener el peso de la persona, se puede ingresar la talla en su defecto</t>
   </si>
@@ -647,13 +648,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" style="10"/>
-    <col min="2" max="2" width="12.1796875" style="4"/>
+    <col min="1" max="1" width="12.140625" style="10"/>
+    <col min="2" max="2" width="12.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -665,7 +666,7 @@
       </c>
       <c r="P1" s="14"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>9</v>
       </c>
@@ -675,7 +676,7 @@
       <c r="O2" s="15"/>
       <c r="P2" s="16"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>11</v>
       </c>
@@ -685,67 +686,67 @@
       <c r="O3" s="15"/>
       <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O4" s="17"/>
       <c r="P4" s="18"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="16:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="16:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="16:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
@@ -763,17 +764,17 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:N9"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="5"/>
-    <col min="3" max="3" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -784,7 +785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>14</v>
       </c>
@@ -795,7 +796,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>13</v>
       </c>
@@ -806,7 +807,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K4" s="19" t="s">
         <v>0</v>
       </c>
@@ -814,31 +815,31 @@
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
@@ -856,17 +857,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F03E005-0A22-4DA5-A050-9B514C55239F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="12.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
@@ -874,7 +875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>7</v>
       </c>
@@ -887,22 +888,53 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7D79B8-0D84-4480-A012-8644393D2706}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D5A9C43658ED8F47B0DE71BE080C72CD" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3a0a1906cd942b854ebba9dcb7c59828">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0429e6f6-3210-4cd6-acdf-ec68178a7607" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47a910d12d0e99a366a53a773091406" ns2:_="">
     <xsd:import namespace="0429e6f6-3210-4cd6-acdf-ec68178a7607"/>
@@ -1086,24 +1118,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96791853-1F35-43CC-95E3-7FA1F9E37EC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51903091-7D99-4F5E-8DEE-30AC40088B6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F379961-77C4-4F40-B977-E17376CE4E90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1119,4 +1149,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51903091-7D99-4F5E-8DEE-30AC40088B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96791853-1F35-43CC-95E3-7FA1F9E37EC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/Services/test.xlsx
+++ b/src/Services/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renzi\Documents\FING\PIS\repp_backend\src\Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81351AF1-327E-4D12-8870-1FCCE0B3D87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A28E6BB-4C09-4883-8B53-5AD177DCB1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{A4031272-87DC-43E9-BA95-7EFE4AF5910A}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11505" activeTab="3" xr2:uid="{A4031272-87DC-43E9-BA95-7EFE4AF5910A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hombres&lt;1" sheetId="1" r:id="rId1"/>
@@ -890,10 +890,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7D79B8-0D84-4480-A012-8644393D2706}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,6 +927,30 @@
       </c>
       <c r="C3" s="4">
         <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
